--- a/data/pca/factorExposure/factorExposure_2015-09-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-09-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.02505862288452586</v>
+        <v>-0.02141848328508495</v>
       </c>
       <c r="C2">
-        <v>-0.03223465610405829</v>
+        <v>-0.04239916353593936</v>
       </c>
       <c r="D2">
-        <v>-0.1137036009337629</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1286367514601665</v>
+      </c>
+      <c r="E2">
+        <v>0.03804615346986512</v>
+      </c>
+      <c r="F2">
+        <v>0.03229305124102945</v>
+      </c>
+      <c r="G2">
+        <v>-0.08329414467553602</v>
+      </c>
+      <c r="H2">
+        <v>-0.06776543334504975</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.002258022532965297</v>
+        <v>0.006970550711410332</v>
       </c>
       <c r="C3">
-        <v>-0.05568589668927625</v>
+        <v>-0.04133200196962702</v>
       </c>
       <c r="D3">
-        <v>-0.05494772452796668</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.04370979549765013</v>
+      </c>
+      <c r="E3">
+        <v>0.05490942317742629</v>
+      </c>
+      <c r="F3">
+        <v>0.05637361573895609</v>
+      </c>
+      <c r="G3">
+        <v>-0.1164010179746619</v>
+      </c>
+      <c r="H3">
+        <v>-0.04355885763049278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.05099461792530106</v>
+        <v>-0.04383139253257227</v>
       </c>
       <c r="C4">
-        <v>-0.06877075841690274</v>
+        <v>-0.08405001102181529</v>
       </c>
       <c r="D4">
-        <v>-0.1266688545174169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1452851462064604</v>
+      </c>
+      <c r="E4">
+        <v>0.05490565475345491</v>
+      </c>
+      <c r="F4">
+        <v>0.05890450758039707</v>
+      </c>
+      <c r="G4">
+        <v>0.04815446972930193</v>
+      </c>
+      <c r="H4">
+        <v>-0.01178441256992653</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03342461434372124</v>
+        <v>-0.03269637213039329</v>
       </c>
       <c r="C6">
-        <v>-0.02551882104309012</v>
+        <v>-0.03418006767579314</v>
       </c>
       <c r="D6">
-        <v>-0.1492644419271499</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1393829139587251</v>
+      </c>
+      <c r="E6">
+        <v>0.01016635148358872</v>
+      </c>
+      <c r="F6">
+        <v>0.05656999831575512</v>
+      </c>
+      <c r="G6">
+        <v>-0.006535708182276734</v>
+      </c>
+      <c r="H6">
+        <v>-0.06026981440787403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.01831730174464601</v>
+        <v>-0.01470131254212993</v>
       </c>
       <c r="C7">
-        <v>-0.03312918072501306</v>
+        <v>-0.03906973720820961</v>
       </c>
       <c r="D7">
-        <v>-0.1119700426431715</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09910495715043253</v>
+      </c>
+      <c r="E7">
+        <v>-0.008704884534251306</v>
+      </c>
+      <c r="F7">
+        <v>0.02586474392475782</v>
+      </c>
+      <c r="G7">
+        <v>-0.02213544889187469</v>
+      </c>
+      <c r="H7">
+        <v>-0.0622987964852976</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01056683780376331</v>
+        <v>-0.005738850599444932</v>
       </c>
       <c r="C8">
-        <v>-0.03521586979008387</v>
+        <v>-0.04003050777480419</v>
       </c>
       <c r="D8">
-        <v>-0.0637988897713858</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.07741752815421918</v>
+      </c>
+      <c r="E8">
+        <v>0.02156883475677674</v>
+      </c>
+      <c r="F8">
+        <v>0.07206079791378359</v>
+      </c>
+      <c r="G8">
+        <v>-0.05444974753543437</v>
+      </c>
+      <c r="H8">
+        <v>-0.03869958495886232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.04088386002237697</v>
+        <v>-0.03418493797285673</v>
       </c>
       <c r="C9">
-        <v>-0.06094968110036127</v>
+        <v>-0.07277050626670228</v>
       </c>
       <c r="D9">
-        <v>-0.1179904660415842</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1242658795696592</v>
+      </c>
+      <c r="E9">
+        <v>0.03721238965416734</v>
+      </c>
+      <c r="F9">
+        <v>0.03698969990576085</v>
+      </c>
+      <c r="G9">
+        <v>0.03244876200741909</v>
+      </c>
+      <c r="H9">
+        <v>-0.00500176593682382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.1295256155469673</v>
+        <v>-0.1766514659457301</v>
       </c>
       <c r="C10">
-        <v>0.1872470083848592</v>
+        <v>0.1711817933262706</v>
       </c>
       <c r="D10">
-        <v>0.001158536540660215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.008089716071313037</v>
+      </c>
+      <c r="E10">
+        <v>0.03417112235910658</v>
+      </c>
+      <c r="F10">
+        <v>0.04061794748928367</v>
+      </c>
+      <c r="G10">
+        <v>0.009977253145964373</v>
+      </c>
+      <c r="H10">
+        <v>0.04812103917850811</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03379124939885854</v>
+        <v>-0.02771205148650098</v>
       </c>
       <c r="C11">
-        <v>-0.04294726256659557</v>
+        <v>-0.05136131170018024</v>
       </c>
       <c r="D11">
-        <v>-0.06099650367435912</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05450043361532996</v>
+      </c>
+      <c r="E11">
+        <v>-0.0161850277768973</v>
+      </c>
+      <c r="F11">
+        <v>-0.005237993992337262</v>
+      </c>
+      <c r="G11">
+        <v>-0.01246212520871862</v>
+      </c>
+      <c r="H11">
+        <v>-0.02847017640447925</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03892151588827837</v>
+        <v>-0.03095139660610018</v>
       </c>
       <c r="C12">
-        <v>-0.04543694378205047</v>
+        <v>-0.05216497802067875</v>
       </c>
       <c r="D12">
-        <v>-0.06735321461486211</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05446165618232476</v>
+      </c>
+      <c r="E12">
+        <v>-0.008369428211690311</v>
+      </c>
+      <c r="F12">
+        <v>-0.01005446193316835</v>
+      </c>
+      <c r="G12">
+        <v>-0.01279991841244912</v>
+      </c>
+      <c r="H12">
+        <v>-0.0319265171137697</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01058087626582533</v>
+        <v>-0.0132925574538185</v>
       </c>
       <c r="C13">
-        <v>-0.03748599715955656</v>
+        <v>-0.04609990463257219</v>
       </c>
       <c r="D13">
-        <v>-0.1433471944854955</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1589041568577254</v>
+      </c>
+      <c r="E13">
+        <v>0.004920536835518498</v>
+      </c>
+      <c r="F13">
+        <v>0.07131407952359514</v>
+      </c>
+      <c r="G13">
+        <v>-0.03971670969071629</v>
+      </c>
+      <c r="H13">
+        <v>-0.03304880589385157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.004588138253923911</v>
+        <v>-0.005899614347759204</v>
       </c>
       <c r="C14">
-        <v>-0.02533290544618845</v>
+        <v>-0.0287057164304326</v>
       </c>
       <c r="D14">
-        <v>-0.1049776560436069</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.1055927954040092</v>
+      </c>
+      <c r="E14">
+        <v>0.01443577190366413</v>
+      </c>
+      <c r="F14">
+        <v>0.02726777036067908</v>
+      </c>
+      <c r="G14">
+        <v>-0.02683316898252827</v>
+      </c>
+      <c r="H14">
+        <v>-0.08639174161567229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.003090317515640231</v>
+        <v>-0.001587128535832532</v>
       </c>
       <c r="C15">
-        <v>-0.006209392247048208</v>
+        <v>-0.014420568400727</v>
       </c>
       <c r="D15">
-        <v>-0.01086172218009374</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04038486639971713</v>
+      </c>
+      <c r="E15">
+        <v>0.007446335940180516</v>
+      </c>
+      <c r="F15">
+        <v>0.007798220255748833</v>
+      </c>
+      <c r="G15">
+        <v>-0.008982667544600522</v>
+      </c>
+      <c r="H15">
+        <v>-0.01973296462536426</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03122953248099933</v>
+        <v>-0.02602657465531804</v>
       </c>
       <c r="C16">
-        <v>-0.04475942045411915</v>
+        <v>-0.05024095236978217</v>
       </c>
       <c r="D16">
-        <v>-0.07133320475833098</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06067199242519487</v>
+      </c>
+      <c r="E16">
+        <v>-0.000361541787177143</v>
+      </c>
+      <c r="F16">
+        <v>0.001829984728748985</v>
+      </c>
+      <c r="G16">
+        <v>-0.01117772557672541</v>
+      </c>
+      <c r="H16">
+        <v>-0.04398587805800341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.009284332328950779</v>
+        <v>-0.005319376323146778</v>
       </c>
       <c r="C19">
-        <v>-0.03158807218551316</v>
+        <v>-0.02726063050549286</v>
       </c>
       <c r="D19">
-        <v>-0.1505045480513623</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1136613308674197</v>
+      </c>
+      <c r="E19">
+        <v>0.04526556035081716</v>
+      </c>
+      <c r="F19">
+        <v>0.01185538802432801</v>
+      </c>
+      <c r="G19">
+        <v>-0.02526977352729802</v>
+      </c>
+      <c r="H19">
+        <v>-0.04615140328923063</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.01413952274822395</v>
+        <v>-0.01398328538939982</v>
       </c>
       <c r="C20">
-        <v>-0.03609709722282065</v>
+        <v>-0.04067581778416449</v>
       </c>
       <c r="D20">
-        <v>-0.09505043963928075</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.1062465543194747</v>
+      </c>
+      <c r="E20">
+        <v>0.03493504152336785</v>
+      </c>
+      <c r="F20">
+        <v>0.02436842418025304</v>
+      </c>
+      <c r="G20">
+        <v>-0.007668801510423816</v>
+      </c>
+      <c r="H20">
+        <v>-0.0537890295991339</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.01100901028499188</v>
+        <v>-0.007598242146377868</v>
       </c>
       <c r="C21">
-        <v>-0.03933228831234466</v>
+        <v>-0.04602142497142431</v>
       </c>
       <c r="D21">
-        <v>-0.1559815050066527</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1540923876022001</v>
+      </c>
+      <c r="E21">
+        <v>0.06339746616176477</v>
+      </c>
+      <c r="F21">
+        <v>0.06151869213077818</v>
+      </c>
+      <c r="G21">
+        <v>-0.009233464740132249</v>
+      </c>
+      <c r="H21">
+        <v>-0.07973616153521647</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.0008206630743590924</v>
+        <v>-0.007538127739390813</v>
       </c>
       <c r="C22">
-        <v>-0.05044154088846139</v>
+        <v>-0.0539677500931495</v>
       </c>
       <c r="D22">
-        <v>-0.1289469299883098</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1919002316004097</v>
+      </c>
+      <c r="E22">
+        <v>0.003523721982791091</v>
+      </c>
+      <c r="F22">
+        <v>0.1234423735701035</v>
+      </c>
+      <c r="G22">
+        <v>-0.1236849709650939</v>
+      </c>
+      <c r="H22">
+        <v>0.07677438400420032</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.0009927623846743576</v>
+        <v>-0.007612390671563296</v>
       </c>
       <c r="C23">
-        <v>-0.05075596782362989</v>
+        <v>-0.05452875839111049</v>
       </c>
       <c r="D23">
-        <v>-0.1283487221721726</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1910161434520271</v>
+      </c>
+      <c r="E23">
+        <v>0.003728055852992634</v>
+      </c>
+      <c r="F23">
+        <v>0.1234530978380428</v>
+      </c>
+      <c r="G23">
+        <v>-0.1230032804231406</v>
+      </c>
+      <c r="H23">
+        <v>0.07684584565577533</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03769222788487822</v>
+        <v>-0.02869053819560877</v>
       </c>
       <c r="C24">
-        <v>-0.05766788238339209</v>
+        <v>-0.0624779095290506</v>
       </c>
       <c r="D24">
-        <v>-0.07079470890234388</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06061802949717801</v>
+      </c>
+      <c r="E24">
+        <v>-0.002611702606958612</v>
+      </c>
+      <c r="F24">
+        <v>-0.0005022140977291119</v>
+      </c>
+      <c r="G24">
+        <v>-0.00519915947126247</v>
+      </c>
+      <c r="H24">
+        <v>-0.05563253184933544</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.04188277279007868</v>
+        <v>-0.03352643448711978</v>
       </c>
       <c r="C25">
-        <v>-0.05137543361470445</v>
+        <v>-0.05941742410755273</v>
       </c>
       <c r="D25">
-        <v>-0.06825018765640126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.06029688047606016</v>
+      </c>
+      <c r="E25">
+        <v>0.002503522394694568</v>
+      </c>
+      <c r="F25">
+        <v>0.002383846134849273</v>
+      </c>
+      <c r="G25">
+        <v>-0.01189575622373388</v>
+      </c>
+      <c r="H25">
+        <v>-0.02149366697671689</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01444961384645069</v>
+        <v>-0.01405660806618821</v>
       </c>
       <c r="C26">
-        <v>-0.01678531760719732</v>
+        <v>-0.02458572311372793</v>
       </c>
       <c r="D26">
-        <v>-0.07403995470788896</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.07412375556223688</v>
+      </c>
+      <c r="E26">
+        <v>0.007970043422551204</v>
+      </c>
+      <c r="F26">
+        <v>0.02919582828445976</v>
+      </c>
+      <c r="G26">
+        <v>-0.01565771504164402</v>
+      </c>
+      <c r="H26">
+        <v>-0.04738118187359122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.1921059850729691</v>
+        <v>-0.2534421024450488</v>
       </c>
       <c r="C28">
-        <v>0.2504680523253551</v>
+        <v>0.2217707023464366</v>
       </c>
       <c r="D28">
-        <v>0.007463851562203539</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.003516403203438987</v>
+      </c>
+      <c r="E28">
+        <v>0.06194187433647715</v>
+      </c>
+      <c r="F28">
+        <v>0.02585552919541275</v>
+      </c>
+      <c r="G28">
+        <v>0.03786447484234847</v>
+      </c>
+      <c r="H28">
+        <v>0.05725239934378815</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.003794153795347684</v>
+        <v>-0.005466359226278851</v>
       </c>
       <c r="C29">
-        <v>-0.02381207924121112</v>
+        <v>-0.02788807601314575</v>
       </c>
       <c r="D29">
-        <v>-0.09607956408239887</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.1033607486083977</v>
+      </c>
+      <c r="E29">
+        <v>0.0003325847336741837</v>
+      </c>
+      <c r="F29">
+        <v>0.04610793787175822</v>
+      </c>
+      <c r="G29">
+        <v>-0.01911179246433074</v>
+      </c>
+      <c r="H29">
+        <v>-0.08147814371169236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.02989865615154674</v>
+        <v>-0.03073995604117708</v>
       </c>
       <c r="C30">
-        <v>-0.06569166270216475</v>
+        <v>-0.07722220274805251</v>
       </c>
       <c r="D30">
-        <v>-0.1581255959849552</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1670721305663625</v>
+      </c>
+      <c r="E30">
+        <v>0.007198147064512528</v>
+      </c>
+      <c r="F30">
+        <v>0.04079296725468411</v>
+      </c>
+      <c r="G30">
+        <v>-0.001036868465598612</v>
+      </c>
+      <c r="H30">
+        <v>-0.06772340522895789</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05670131998558171</v>
+        <v>-0.04140133960743339</v>
       </c>
       <c r="C31">
-        <v>-0.07426134030897458</v>
+        <v>-0.08221012839771433</v>
       </c>
       <c r="D31">
-        <v>-0.05760761153854255</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.04302784695548587</v>
+      </c>
+      <c r="E31">
+        <v>0.01178734479857869</v>
+      </c>
+      <c r="F31">
+        <v>0.03620712268186617</v>
+      </c>
+      <c r="G31">
+        <v>-0.01520928122611564</v>
+      </c>
+      <c r="H31">
+        <v>-0.01055222722877226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02539422065807392</v>
+        <v>-0.02402268335145996</v>
       </c>
       <c r="C32">
-        <v>-0.02526371488594963</v>
+        <v>-0.03063885416419751</v>
       </c>
       <c r="D32">
-        <v>-0.1011891770069529</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.1215154515156388</v>
+      </c>
+      <c r="E32">
+        <v>0.03852114142119908</v>
+      </c>
+      <c r="F32">
+        <v>0.05982747095909843</v>
+      </c>
+      <c r="G32">
+        <v>-0.01449188471165585</v>
+      </c>
+      <c r="H32">
+        <v>-0.03234156896278099</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02205757185312316</v>
+        <v>-0.0214066318368649</v>
       </c>
       <c r="C33">
-        <v>-0.04510021148553271</v>
+        <v>-0.05182778890319834</v>
       </c>
       <c r="D33">
-        <v>-0.1483953707416852</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1380035847914889</v>
+      </c>
+      <c r="E33">
+        <v>0.02409138036216138</v>
+      </c>
+      <c r="F33">
+        <v>0.03512491659653831</v>
+      </c>
+      <c r="G33">
+        <v>-0.01081957087016481</v>
+      </c>
+      <c r="H33">
+        <v>-0.04658568771422718</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03594646609962103</v>
+        <v>-0.02630325642658655</v>
       </c>
       <c r="C34">
-        <v>-0.06193872591508726</v>
+        <v>-0.06448772095733868</v>
       </c>
       <c r="D34">
-        <v>-0.06807593451859638</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05005483020111159</v>
+      </c>
+      <c r="E34">
+        <v>-0.01865670568290774</v>
+      </c>
+      <c r="F34">
+        <v>-0.01504939790097411</v>
+      </c>
+      <c r="G34">
+        <v>-0.02419507689178795</v>
+      </c>
+      <c r="H34">
+        <v>-0.04372647896347141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.00133394178598564</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.002096257050944841</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01024536937552659</v>
+      </c>
+      <c r="E35">
+        <v>-0.0005882663308420706</v>
+      </c>
+      <c r="F35">
+        <v>0.001982870279918557</v>
+      </c>
+      <c r="G35">
+        <v>-0.0007411195802010984</v>
+      </c>
+      <c r="H35">
+        <v>-0.002856250305757659</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01891767480417111</v>
+        <v>-0.01848958454311651</v>
       </c>
       <c r="C36">
-        <v>-0.009794390076537669</v>
+        <v>-0.01955436868214531</v>
       </c>
       <c r="D36">
-        <v>-0.09583876387810444</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.08721931855952988</v>
+      </c>
+      <c r="E36">
+        <v>0.01669695828017132</v>
+      </c>
+      <c r="F36">
+        <v>0.02272114179261226</v>
+      </c>
+      <c r="G36">
+        <v>0.004401546136945465</v>
+      </c>
+      <c r="H36">
+        <v>-0.04060430387014349</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.0170647830811225</v>
+        <v>-0.02118721439221925</v>
       </c>
       <c r="C38">
-        <v>-0.01598855986452305</v>
+        <v>-0.01919548851993257</v>
       </c>
       <c r="D38">
-        <v>-0.08277493760377194</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.07956960488004061</v>
+      </c>
+      <c r="E38">
+        <v>0.02906814078817512</v>
+      </c>
+      <c r="F38">
+        <v>-0.01117113698691753</v>
+      </c>
+      <c r="G38">
+        <v>-0.02287613276403175</v>
+      </c>
+      <c r="H38">
+        <v>-0.03401116556811565</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03800496052470068</v>
+        <v>-0.03001306274491244</v>
       </c>
       <c r="C39">
-        <v>-0.05898701202630881</v>
+        <v>-0.07325328641130624</v>
       </c>
       <c r="D39">
-        <v>-0.1101038052073755</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1096450153175619</v>
+      </c>
+      <c r="E39">
+        <v>-0.009818537231982696</v>
+      </c>
+      <c r="F39">
+        <v>-0.009108788240829351</v>
+      </c>
+      <c r="G39">
+        <v>-0.002469877986313598</v>
+      </c>
+      <c r="H39">
+        <v>-0.08797508167248373</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01593178806659201</v>
+        <v>-0.01270754735075198</v>
       </c>
       <c r="C40">
-        <v>-0.0439308218070372</v>
+        <v>-0.0398672865629161</v>
       </c>
       <c r="D40">
-        <v>-0.0900135906332563</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.09423012706767253</v>
+      </c>
+      <c r="E40">
+        <v>0.02972638465966781</v>
+      </c>
+      <c r="F40">
+        <v>0.1033414554436697</v>
+      </c>
+      <c r="G40">
+        <v>-0.1748694435239444</v>
+      </c>
+      <c r="H40">
+        <v>-0.1084614351250742</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.03033678362608895</v>
+        <v>-0.02824465003243231</v>
       </c>
       <c r="C41">
-        <v>-0.004806248347597592</v>
+        <v>-0.01383798149241949</v>
       </c>
       <c r="D41">
-        <v>-0.0710745664290907</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.05239798001253591</v>
+      </c>
+      <c r="E41">
+        <v>0.04507147914787425</v>
+      </c>
+      <c r="F41">
+        <v>0.01659280523871851</v>
+      </c>
+      <c r="G41">
+        <v>-0.03194626052988297</v>
+      </c>
+      <c r="H41">
+        <v>-0.03940189713966489</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.02433144400913407</v>
+        <v>-0.02067356200606618</v>
       </c>
       <c r="C43">
-        <v>-0.01372986604526182</v>
+        <v>-0.02031915968562695</v>
       </c>
       <c r="D43">
-        <v>-0.104856580178351</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.08038389362250142</v>
+      </c>
+      <c r="E43">
+        <v>0.02404566585374007</v>
+      </c>
+      <c r="F43">
+        <v>0.01309876597617599</v>
+      </c>
+      <c r="G43">
+        <v>-0.02605108775116415</v>
+      </c>
+      <c r="H43">
+        <v>-0.04525416063198227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01437086100500736</v>
+        <v>-0.01589041249326344</v>
       </c>
       <c r="C44">
-        <v>-0.04390041259010894</v>
+        <v>-0.04513135734269635</v>
       </c>
       <c r="D44">
-        <v>-0.09412912092969176</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.1108781182514805</v>
+      </c>
+      <c r="E44">
+        <v>0.03065845010060077</v>
+      </c>
+      <c r="F44">
+        <v>0.02369811482667833</v>
+      </c>
+      <c r="G44">
+        <v>-0.007643084444438984</v>
+      </c>
+      <c r="H44">
+        <v>-0.04976577994262617</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.0162910657007316</v>
+        <v>-0.01179458402818132</v>
       </c>
       <c r="C46">
-        <v>-0.02687929608944967</v>
+        <v>-0.03496377849648832</v>
       </c>
       <c r="D46">
-        <v>-0.105525391666431</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.09959381990580524</v>
+      </c>
+      <c r="E46">
+        <v>0.01243347536952881</v>
+      </c>
+      <c r="F46">
+        <v>0.02313714981558939</v>
+      </c>
+      <c r="G46">
+        <v>-0.008872820040017442</v>
+      </c>
+      <c r="H46">
+        <v>-0.08465167127304606</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09085923471227401</v>
+        <v>-0.07163127313305374</v>
       </c>
       <c r="C47">
-        <v>-0.0868147300968127</v>
+        <v>-0.1018127622076477</v>
       </c>
       <c r="D47">
-        <v>-0.0294947496611882</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02382441401510339</v>
+      </c>
+      <c r="E47">
+        <v>0.0232808931018567</v>
+      </c>
+      <c r="F47">
+        <v>0.02011917502113539</v>
+      </c>
+      <c r="G47">
+        <v>-0.005965165102550858</v>
+      </c>
+      <c r="H47">
+        <v>0.0568881144626287</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01266285909562813</v>
+        <v>-0.01373633143596432</v>
       </c>
       <c r="C48">
-        <v>-0.02180737784802259</v>
+        <v>-0.0264813749580641</v>
       </c>
       <c r="D48">
-        <v>-0.0870156843806187</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.08530926004594103</v>
+      </c>
+      <c r="E48">
+        <v>0.04392230188025753</v>
+      </c>
+      <c r="F48">
+        <v>0.0302105124246919</v>
+      </c>
+      <c r="G48">
+        <v>-0.00395440299831485</v>
+      </c>
+      <c r="H48">
+        <v>-0.05938299180993122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.05327029577863806</v>
+        <v>-0.03989207626527445</v>
       </c>
       <c r="C50">
-        <v>-0.06028389552231801</v>
+        <v>-0.07012985185731357</v>
       </c>
       <c r="D50">
-        <v>-0.06417962938223583</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05293129996905523</v>
+      </c>
+      <c r="E50">
+        <v>0.01617643424958366</v>
+      </c>
+      <c r="F50">
+        <v>0.03735100534223766</v>
+      </c>
+      <c r="G50">
+        <v>-0.04047489041315057</v>
+      </c>
+      <c r="H50">
+        <v>0.0002673053126180643</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01160473259488855</v>
+        <v>-0.00980334619770414</v>
       </c>
       <c r="C51">
-        <v>-0.01758361286203884</v>
+        <v>-0.02378781232650237</v>
       </c>
       <c r="D51">
-        <v>-0.09163975122566642</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.09457546106980078</v>
+      </c>
+      <c r="E51">
+        <v>-0.005457087621498505</v>
+      </c>
+      <c r="F51">
+        <v>0.008905268109759388</v>
+      </c>
+      <c r="G51">
+        <v>0.002762579807398509</v>
+      </c>
+      <c r="H51">
+        <v>-0.07344759300517639</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1066656234635991</v>
+        <v>-0.09192947077798154</v>
       </c>
       <c r="C53">
-        <v>-0.1054872448462296</v>
+        <v>-0.123937898436765</v>
       </c>
       <c r="D53">
-        <v>0.01373167979113531</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.006134311851605821</v>
+      </c>
+      <c r="E53">
+        <v>0.07324735292244239</v>
+      </c>
+      <c r="F53">
+        <v>0.08065957970305872</v>
+      </c>
+      <c r="G53">
+        <v>-0.002825552044966055</v>
+      </c>
+      <c r="H53">
+        <v>0.01492823114223247</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.01953361045173571</v>
+        <v>-0.01788456402850936</v>
       </c>
       <c r="C54">
-        <v>-0.02818107265694175</v>
+        <v>-0.03612348063153412</v>
       </c>
       <c r="D54">
-        <v>-0.1117231983701228</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.09627596254746279</v>
+      </c>
+      <c r="E54">
+        <v>0.02466558639765105</v>
+      </c>
+      <c r="F54">
+        <v>0.01725505193745655</v>
+      </c>
+      <c r="G54">
+        <v>-0.04384969634439508</v>
+      </c>
+      <c r="H54">
+        <v>-0.06564279735390814</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09881329342009187</v>
+        <v>-0.08226141878060572</v>
       </c>
       <c r="C55">
-        <v>-0.08064151623093677</v>
+        <v>-0.09849387850237179</v>
       </c>
       <c r="D55">
-        <v>0.02554060281144161</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.02185311175087921</v>
+      </c>
+      <c r="E55">
+        <v>0.02364796676015748</v>
+      </c>
+      <c r="F55">
+        <v>0.06374167800848166</v>
+      </c>
+      <c r="G55">
+        <v>-0.02771039595175939</v>
+      </c>
+      <c r="H55">
+        <v>0.0205835878757935</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1384351781010759</v>
+        <v>-0.1146525617182029</v>
       </c>
       <c r="C56">
-        <v>-0.1141272637628525</v>
+        <v>-0.1464171642281534</v>
       </c>
       <c r="D56">
-        <v>0.0240387553300437</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.02410703690094592</v>
+      </c>
+      <c r="E56">
+        <v>0.05038600573763545</v>
+      </c>
+      <c r="F56">
+        <v>0.05350496805284446</v>
+      </c>
+      <c r="G56">
+        <v>-0.03587883531152334</v>
+      </c>
+      <c r="H56">
+        <v>0.03792863311420203</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.00763371462075133</v>
+        <v>-0.003010830834632112</v>
       </c>
       <c r="C58">
-        <v>-0.04174381529024965</v>
+        <v>-0.05348196646260091</v>
       </c>
       <c r="D58">
-        <v>-0.1955795974466438</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.262831186094386</v>
+      </c>
+      <c r="E58">
+        <v>0.09824420524190161</v>
+      </c>
+      <c r="F58">
+        <v>0.1198054910765672</v>
+      </c>
+      <c r="G58">
+        <v>-0.06810907306643713</v>
+      </c>
+      <c r="H58">
+        <v>0.01871296108632697</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1510129702544744</v>
+        <v>-0.1961919242184803</v>
       </c>
       <c r="C59">
-        <v>0.1680389719711695</v>
+        <v>0.1418909614643447</v>
       </c>
       <c r="D59">
-        <v>-0.05878407841434023</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.0716559181327497</v>
+      </c>
+      <c r="E59">
+        <v>0.0452840881752557</v>
+      </c>
+      <c r="F59">
+        <v>-0.01840944009359523</v>
+      </c>
+      <c r="G59">
+        <v>0.01297587839135484</v>
+      </c>
+      <c r="H59">
+        <v>0.01785227099304266</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2314940254583959</v>
+        <v>-0.2091426287616682</v>
       </c>
       <c r="C60">
-        <v>-0.07911040672847111</v>
+        <v>-0.125499523851523</v>
       </c>
       <c r="D60">
-        <v>-0.1641719945205524</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1099298660252243</v>
+      </c>
+      <c r="E60">
+        <v>-0.3212692002308914</v>
+      </c>
+      <c r="F60">
+        <v>-0.107880507679439</v>
+      </c>
+      <c r="G60">
+        <v>0.08652675849664061</v>
+      </c>
+      <c r="H60">
+        <v>0.18442176902107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.04443199112508323</v>
+        <v>-0.03514079934776786</v>
       </c>
       <c r="C61">
-        <v>-0.05638098989026624</v>
+        <v>-0.06723865547359184</v>
       </c>
       <c r="D61">
-        <v>-0.1170669994133396</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09701781032209172</v>
+      </c>
+      <c r="E61">
+        <v>-0.01066835616535747</v>
+      </c>
+      <c r="F61">
+        <v>-0.008551481071964471</v>
+      </c>
+      <c r="G61">
+        <v>-0.002018442560840127</v>
+      </c>
+      <c r="H61">
+        <v>-0.04696801162013456</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01528207809902178</v>
+        <v>-0.01296414420028602</v>
       </c>
       <c r="C63">
-        <v>-0.02706189982935269</v>
+        <v>-0.0355979343653865</v>
       </c>
       <c r="D63">
-        <v>-0.08702031848069569</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07711772270887003</v>
+      </c>
+      <c r="E63">
+        <v>-8.69258016436524e-05</v>
+      </c>
+      <c r="F63">
+        <v>0.02401422716794117</v>
+      </c>
+      <c r="G63">
+        <v>-0.004848196509330145</v>
+      </c>
+      <c r="H63">
+        <v>-0.05006018874089158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05805392047785935</v>
+        <v>-0.044136923584919</v>
       </c>
       <c r="C64">
-        <v>-0.07461876976528564</v>
+        <v>-0.08430122209601999</v>
       </c>
       <c r="D64">
-        <v>-0.05296572794886538</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.0521864728838682</v>
+      </c>
+      <c r="E64">
+        <v>0.01152030818422386</v>
+      </c>
+      <c r="F64">
+        <v>0.005482587973602581</v>
+      </c>
+      <c r="G64">
+        <v>0.0734128098934734</v>
+      </c>
+      <c r="H64">
+        <v>-0.07694808087107305</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.03167410781797634</v>
+        <v>-0.02931779455232532</v>
       </c>
       <c r="C65">
-        <v>-0.02260310140896126</v>
+        <v>-0.03441072496129357</v>
       </c>
       <c r="D65">
-        <v>-0.1124273303225558</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1088762454713987</v>
+      </c>
+      <c r="E65">
+        <v>-0.002495711183629826</v>
+      </c>
+      <c r="F65">
+        <v>0.03293529288293236</v>
+      </c>
+      <c r="G65">
+        <v>-0.01459133021228879</v>
+      </c>
+      <c r="H65">
+        <v>-0.02605206293836342</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04154609312321178</v>
+        <v>-0.03366319856069799</v>
       </c>
       <c r="C66">
-        <v>-0.06801769603462869</v>
+        <v>-0.08585873493394436</v>
       </c>
       <c r="D66">
-        <v>-0.1231342074085435</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1349126693449496</v>
+      </c>
+      <c r="E66">
+        <v>-0.005166048046455105</v>
+      </c>
+      <c r="F66">
+        <v>-0.003897868784729398</v>
+      </c>
+      <c r="G66">
+        <v>-0.01418170753421782</v>
+      </c>
+      <c r="H66">
+        <v>-0.04697794527797605</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.03851693928605728</v>
+        <v>-0.03713786389019156</v>
       </c>
       <c r="C67">
-        <v>-0.02159018872433116</v>
+        <v>-0.02796234296037106</v>
       </c>
       <c r="D67">
-        <v>-0.04573777449209542</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03371845064507983</v>
+      </c>
+      <c r="E67">
+        <v>0.00523931893924288</v>
+      </c>
+      <c r="F67">
+        <v>-0.02558125458342358</v>
+      </c>
+      <c r="G67">
+        <v>-0.02229970400759242</v>
+      </c>
+      <c r="H67">
+        <v>-0.03772299666466067</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.1834988730104617</v>
+        <v>-0.2259676619628233</v>
       </c>
       <c r="C68">
-        <v>0.2017130045373863</v>
+        <v>0.165537919485756</v>
       </c>
       <c r="D68">
-        <v>-0.02373154287570017</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.0302474562817045</v>
+      </c>
+      <c r="E68">
+        <v>0.01729097028591213</v>
+      </c>
+      <c r="F68">
+        <v>0.03729110978217186</v>
+      </c>
+      <c r="G68">
+        <v>-0.02775624723180415</v>
+      </c>
+      <c r="H68">
+        <v>0.01609348437179257</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.08569312145070664</v>
+        <v>-0.06551514510813826</v>
       </c>
       <c r="C69">
-        <v>-0.1026085035339226</v>
+        <v>-0.108343359275161</v>
       </c>
       <c r="D69">
-        <v>-0.0645359779233389</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.03985248386511455</v>
+      </c>
+      <c r="E69">
+        <v>0.002528286967880997</v>
+      </c>
+      <c r="F69">
+        <v>0.006841589798276333</v>
+      </c>
+      <c r="G69">
+        <v>-0.008667821465989701</v>
+      </c>
+      <c r="H69">
+        <v>0.02960622086254674</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1703684575949134</v>
+        <v>-0.2136996345986819</v>
       </c>
       <c r="C71">
-        <v>0.2092400291980177</v>
+        <v>0.1750457155870994</v>
       </c>
       <c r="D71">
-        <v>-0.01704217688664984</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.02732681186589337</v>
+      </c>
+      <c r="E71">
+        <v>0.03727129727430248</v>
+      </c>
+      <c r="F71">
+        <v>0.05880384550948679</v>
+      </c>
+      <c r="G71">
+        <v>-0.04766612453769905</v>
+      </c>
+      <c r="H71">
+        <v>0.01665247244022686</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1087459102333237</v>
+        <v>-0.09398700461197465</v>
       </c>
       <c r="C72">
-        <v>-0.06241420943569658</v>
+        <v>-0.09201572147897316</v>
       </c>
       <c r="D72">
-        <v>-0.07966021814734268</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.08143491855114504</v>
+      </c>
+      <c r="E72">
+        <v>-0.06612997021559713</v>
+      </c>
+      <c r="F72">
+        <v>0.03840880061931925</v>
+      </c>
+      <c r="G72">
+        <v>9.272115140874774e-06</v>
+      </c>
+      <c r="H72">
+        <v>-0.02816838891946823</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2164982337822134</v>
+        <v>-0.1938578430385384</v>
       </c>
       <c r="C73">
-        <v>-0.04557372371489211</v>
+        <v>-0.103805462651926</v>
       </c>
       <c r="D73">
-        <v>-0.2771910499268277</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.1516144371320247</v>
+      </c>
+      <c r="E73">
+        <v>-0.5700950499677387</v>
+      </c>
+      <c r="F73">
+        <v>-0.184852435531408</v>
+      </c>
+      <c r="G73">
+        <v>0.1625015156330507</v>
+      </c>
+      <c r="H73">
+        <v>0.2325825744660525</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1112087878313932</v>
+        <v>-0.09038887246674815</v>
       </c>
       <c r="C74">
-        <v>-0.0889957012017482</v>
+        <v>-0.1098428090962101</v>
       </c>
       <c r="D74">
-        <v>0.0381856070259557</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03774132711282924</v>
+      </c>
+      <c r="E74">
+        <v>0.03075303919671748</v>
+      </c>
+      <c r="F74">
+        <v>0.06782477874603131</v>
+      </c>
+      <c r="G74">
+        <v>0.01370961450981241</v>
+      </c>
+      <c r="H74">
+        <v>0.03394616901070719</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2608451283724703</v>
+        <v>-0.2160270313013889</v>
       </c>
       <c r="C75">
-        <v>-0.151186102981932</v>
+        <v>-0.1992547651566871</v>
       </c>
       <c r="D75">
-        <v>0.1284783261923278</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.143774839858838</v>
+      </c>
+      <c r="E75">
+        <v>0.0833549512588634</v>
+      </c>
+      <c r="F75">
+        <v>0.01942997484418884</v>
+      </c>
+      <c r="G75">
+        <v>-0.05561398018493477</v>
+      </c>
+      <c r="H75">
+        <v>0.04791546917647208</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1502599408212044</v>
+        <v>-0.1207772773478412</v>
       </c>
       <c r="C76">
-        <v>-0.1171155130645155</v>
+        <v>-0.1431186617728586</v>
       </c>
       <c r="D76">
-        <v>0.02258816894292908</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.03151546739491877</v>
+      </c>
+      <c r="E76">
+        <v>0.0668725069510859</v>
+      </c>
+      <c r="F76">
+        <v>0.03345618767285393</v>
+      </c>
+      <c r="G76">
+        <v>-0.02652288381841357</v>
+      </c>
+      <c r="H76">
+        <v>-0.02410658624740702</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.04481818545090448</v>
+        <v>-0.04771690025491947</v>
       </c>
       <c r="C77">
-        <v>-0.07815604465021549</v>
+        <v>-0.08399547116305209</v>
       </c>
       <c r="D77">
-        <v>-0.04432599412456659</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1422024217865238</v>
+      </c>
+      <c r="E77">
+        <v>0.5082232098232269</v>
+      </c>
+      <c r="F77">
+        <v>-0.3883253349081994</v>
+      </c>
+      <c r="G77">
+        <v>-0.1222094896654403</v>
+      </c>
+      <c r="H77">
+        <v>0.6498394931889877</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.04194684070202206</v>
+        <v>-0.03926842821453346</v>
       </c>
       <c r="C78">
-        <v>-0.0625737697918804</v>
+        <v>-0.07426799041488646</v>
       </c>
       <c r="D78">
-        <v>-0.1378256301732858</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1400853763095813</v>
+      </c>
+      <c r="E78">
+        <v>0.007274023204472645</v>
+      </c>
+      <c r="F78">
+        <v>0.03856634431876815</v>
+      </c>
+      <c r="G78">
+        <v>0.004858966481375725</v>
+      </c>
+      <c r="H78">
+        <v>0.01449067055784308</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.05936004596365247</v>
+        <v>-0.052929994740629</v>
       </c>
       <c r="C79">
-        <v>-0.1059941821322192</v>
+        <v>-0.1193484755760861</v>
       </c>
       <c r="D79">
-        <v>0.1604044548542792</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.06727978113691313</v>
+      </c>
+      <c r="E79">
+        <v>0.2130765181246934</v>
+      </c>
+      <c r="F79">
+        <v>0.4558648845350262</v>
+      </c>
+      <c r="G79">
+        <v>0.7506832888521494</v>
+      </c>
+      <c r="H79">
+        <v>0.1510244021462926</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.02201719999776454</v>
+        <v>-0.0181018658698432</v>
       </c>
       <c r="C80">
-        <v>-0.04903656935095736</v>
+        <v>-0.04954222913321717</v>
       </c>
       <c r="D80">
-        <v>-0.03029594232641682</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.0259212004484621</v>
+      </c>
+      <c r="E80">
+        <v>0.0004918427646946127</v>
+      </c>
+      <c r="F80">
+        <v>0.01880804396320475</v>
+      </c>
+      <c r="G80">
+        <v>-0.02739341330115517</v>
+      </c>
+      <c r="H80">
+        <v>-0.05084848652320452</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.135460062765529</v>
+        <v>-0.1052067270197074</v>
       </c>
       <c r="C81">
-        <v>-0.1191872015310321</v>
+        <v>-0.1397594353209375</v>
       </c>
       <c r="D81">
-        <v>0.1037745207827486</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1020147782528922</v>
+      </c>
+      <c r="E81">
+        <v>0.0914318718434208</v>
+      </c>
+      <c r="F81">
+        <v>0.05484747311244954</v>
+      </c>
+      <c r="G81">
+        <v>-0.02358260790562923</v>
+      </c>
+      <c r="H81">
+        <v>-0.02454411320255166</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.2716038491064793</v>
+        <v>-0.2052245707615612</v>
       </c>
       <c r="C82">
-        <v>-0.2406962784639734</v>
+        <v>-0.2654444429093403</v>
       </c>
       <c r="D82">
-        <v>0.230677991008765</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2340698065266592</v>
+      </c>
+      <c r="E82">
+        <v>0.006040272193794507</v>
+      </c>
+      <c r="F82">
+        <v>-0.05610660738252388</v>
+      </c>
+      <c r="G82">
+        <v>-0.07292598218932281</v>
+      </c>
+      <c r="H82">
+        <v>-0.005281080776435829</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.02119758384050704</v>
+        <v>-0.01252792087024713</v>
       </c>
       <c r="C83">
-        <v>-0.06069697298065794</v>
+        <v>-0.05548895591675216</v>
       </c>
       <c r="D83">
-        <v>-0.05153404716906031</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05855738999143742</v>
+      </c>
+      <c r="E83">
+        <v>0.05521920092162914</v>
+      </c>
+      <c r="F83">
+        <v>-0.07581225480577358</v>
+      </c>
+      <c r="G83">
+        <v>0.009706806753069962</v>
+      </c>
+      <c r="H83">
+        <v>0.02700811821599644</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.001215383781144124</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.007987373243302794</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.02242323398456159</v>
+      </c>
+      <c r="E84">
+        <v>0.01413196282036023</v>
+      </c>
+      <c r="F84">
+        <v>0.0239058726589391</v>
+      </c>
+      <c r="G84">
+        <v>-0.01233945128843567</v>
+      </c>
+      <c r="H84">
+        <v>-0.02269350872787761</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1688598254489135</v>
+        <v>-0.1361953091215425</v>
       </c>
       <c r="C85">
-        <v>-0.1237253053831658</v>
+        <v>-0.1601645154317257</v>
       </c>
       <c r="D85">
-        <v>0.06732652532932742</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.08739580486950657</v>
+      </c>
+      <c r="E85">
+        <v>0.01990049282170048</v>
+      </c>
+      <c r="F85">
+        <v>0.05835596025328807</v>
+      </c>
+      <c r="G85">
+        <v>0.04879813243241398</v>
+      </c>
+      <c r="H85">
+        <v>-0.02471982943042171</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.02191604492957396</v>
+        <v>-0.01952286506934001</v>
       </c>
       <c r="C86">
-        <v>-0.03616208967063386</v>
+        <v>-0.03732096414182378</v>
       </c>
       <c r="D86">
-        <v>-0.1176588949683064</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.120352780304554</v>
+      </c>
+      <c r="E86">
+        <v>0.02337380390812293</v>
+      </c>
+      <c r="F86">
+        <v>-0.01637941767823612</v>
+      </c>
+      <c r="G86">
+        <v>-0.03621595899157529</v>
+      </c>
+      <c r="H86">
+        <v>0.06477078121010643</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02594654620648296</v>
+        <v>-0.03045261553009432</v>
       </c>
       <c r="C87">
-        <v>-0.026180938121431</v>
+        <v>-0.03896455600586191</v>
       </c>
       <c r="D87">
-        <v>-0.114688850781514</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1427817952953991</v>
+      </c>
+      <c r="E87">
+        <v>0.05302777651264948</v>
+      </c>
+      <c r="F87">
+        <v>0.03301642803168844</v>
+      </c>
+      <c r="G87">
+        <v>-0.01793306810034534</v>
+      </c>
+      <c r="H87">
+        <v>-0.04935208789872395</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.0730858073088915</v>
+        <v>-0.05974217811064087</v>
       </c>
       <c r="C88">
-        <v>-0.04606875879974323</v>
+        <v>-0.06231033583792695</v>
       </c>
       <c r="D88">
-        <v>-0.05038610167839357</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02267730900352964</v>
+      </c>
+      <c r="E88">
+        <v>0.002069440458377041</v>
+      </c>
+      <c r="F88">
+        <v>0.0282976541477208</v>
+      </c>
+      <c r="G88">
+        <v>0.005150429020852046</v>
+      </c>
+      <c r="H88">
+        <v>-0.03898082467885636</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.2655899762914062</v>
+        <v>-0.3278957327545177</v>
       </c>
       <c r="C89">
-        <v>0.3809916429306433</v>
+        <v>0.3071381246015055</v>
       </c>
       <c r="D89">
-        <v>0.0004702619760455169</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.007892865904854891</v>
+      </c>
+      <c r="E89">
+        <v>0.05725491561032681</v>
+      </c>
+      <c r="F89">
+        <v>0.00771293143189937</v>
+      </c>
+      <c r="G89">
+        <v>0.02636969603183728</v>
+      </c>
+      <c r="H89">
+        <v>-0.1557675574624049</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.2233200002022206</v>
+        <v>-0.2679661605883693</v>
       </c>
       <c r="C90">
-        <v>0.2758575273752565</v>
+        <v>0.2147109392139834</v>
       </c>
       <c r="D90">
-        <v>-0.02777301631589542</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.03652306572453718</v>
+      </c>
+      <c r="E90">
+        <v>0.04050563506179293</v>
+      </c>
+      <c r="F90">
+        <v>0.003562833035286105</v>
+      </c>
+      <c r="G90">
+        <v>-0.06161510096147159</v>
+      </c>
+      <c r="H90">
+        <v>-0.02052489199332376</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.173126632850632</v>
+        <v>-0.1357947574656125</v>
       </c>
       <c r="C91">
-        <v>-0.162647811749786</v>
+        <v>-0.1781674868418814</v>
       </c>
       <c r="D91">
-        <v>0.127117123541835</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1178653347426099</v>
+      </c>
+      <c r="E91">
+        <v>0.09784933816103086</v>
+      </c>
+      <c r="F91">
+        <v>0.06525496853999081</v>
+      </c>
+      <c r="G91">
+        <v>0.03057144107668163</v>
+      </c>
+      <c r="H91">
+        <v>0.03443012784924251</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1896016879095072</v>
+        <v>-0.2560767357876819</v>
       </c>
       <c r="C92">
-        <v>0.2693848908421512</v>
+        <v>0.2386817042869987</v>
       </c>
       <c r="D92">
-        <v>-0.02270962912354299</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.0344939116535378</v>
+      </c>
+      <c r="E92">
+        <v>0.10448282062801</v>
+      </c>
+      <c r="F92">
+        <v>0.01417872128154996</v>
+      </c>
+      <c r="G92">
+        <v>-0.007585874314586617</v>
+      </c>
+      <c r="H92">
+        <v>-0.05787415368205195</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2400253964149833</v>
+        <v>-0.28272809606926</v>
       </c>
       <c r="C93">
-        <v>0.3019709500927774</v>
+        <v>0.2346623557436369</v>
       </c>
       <c r="D93">
-        <v>-0.02856543587788034</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01053482902980696</v>
+      </c>
+      <c r="E93">
+        <v>-0.02389396120390068</v>
+      </c>
+      <c r="F93">
+        <v>0.03736067195892605</v>
+      </c>
+      <c r="G93">
+        <v>0.0133405356024622</v>
+      </c>
+      <c r="H93">
+        <v>0.03416212034040195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3491315439572703</v>
+        <v>-0.283904724637184</v>
       </c>
       <c r="C94">
-        <v>-0.2055149974000857</v>
+        <v>-0.2804546121617633</v>
       </c>
       <c r="D94">
-        <v>0.3521238807165182</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.378935811998141</v>
+      </c>
+      <c r="E94">
+        <v>0.01583042755399391</v>
+      </c>
+      <c r="F94">
+        <v>-0.03933714452894121</v>
+      </c>
+      <c r="G94">
+        <v>-0.2517987123153494</v>
+      </c>
+      <c r="H94">
+        <v>-0.2296728064358738</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.07093130652965156</v>
+        <v>-0.06355766618052153</v>
       </c>
       <c r="C95">
-        <v>-0.07029845701997059</v>
+        <v>-0.08078469455283437</v>
       </c>
       <c r="D95">
-        <v>-0.1576040161468392</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1257835741100725</v>
+      </c>
+      <c r="E95">
+        <v>0.213616454757389</v>
+      </c>
+      <c r="F95">
+        <v>-0.652096511971775</v>
+      </c>
+      <c r="G95">
+        <v>0.4222534611246217</v>
+      </c>
+      <c r="H95">
+        <v>-0.4351010452485285</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-2.904844609878502e-05</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>9.705476174387734e-05</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.0001174013402776901</v>
+      </c>
+      <c r="E97">
+        <v>-0.0002189587215000463</v>
+      </c>
+      <c r="F97">
+        <v>0.0001731728933580333</v>
+      </c>
+      <c r="G97">
+        <v>-0.0003796254410118048</v>
+      </c>
+      <c r="H97">
+        <v>0.000306281301502002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1712707881804334</v>
+        <v>-0.1583647966143411</v>
       </c>
       <c r="C98">
-        <v>-0.05833511630692072</v>
+        <v>-0.0992599619184544</v>
       </c>
       <c r="D98">
-        <v>-0.1443877694893956</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.09716771025783737</v>
+      </c>
+      <c r="E98">
+        <v>-0.3268947026503518</v>
+      </c>
+      <c r="F98">
+        <v>-0.08893231570206118</v>
+      </c>
+      <c r="G98">
+        <v>0.08043723806510411</v>
+      </c>
+      <c r="H98">
+        <v>0.1373915603343496</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.00390249459126713</v>
+        <v>-0.005645072952815865</v>
       </c>
       <c r="C101">
-        <v>-0.02316748982750609</v>
+        <v>-0.02710801912243778</v>
       </c>
       <c r="D101">
-        <v>-0.09619764793742323</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.1031480687423889</v>
+      </c>
+      <c r="E101">
+        <v>0.001272710004228904</v>
+      </c>
+      <c r="F101">
+        <v>0.04563043604892003</v>
+      </c>
+      <c r="G101">
+        <v>-0.01858589572968971</v>
+      </c>
+      <c r="H101">
+        <v>-0.08160906092431407</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1256640590063338</v>
+        <v>-0.09133106761145809</v>
       </c>
       <c r="C102">
-        <v>-0.1273173921159859</v>
+        <v>-0.1325604610894718</v>
       </c>
       <c r="D102">
-        <v>0.09700149679944742</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.1002798357573016</v>
+      </c>
+      <c r="E102">
+        <v>0.02630539465671577</v>
+      </c>
+      <c r="F102">
+        <v>-0.03848978430545275</v>
+      </c>
+      <c r="G102">
+        <v>-0.02828795642258734</v>
+      </c>
+      <c r="H102">
+        <v>0.001961989206687345</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
